--- a/List of Programs.xlsx
+++ b/List of Programs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SanjanaKoirala\IdeaProjects\CULT\100-days-of-Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E4B3F6-4216-4F70-95E2-D3936420B7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAF4296-0A99-4B56-8CAF-9613E1329B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>Day</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>Implement Bubble Sort to sort an array of integers in ascending order.</t>
+  </si>
+  <si>
+    <t>Write a program to perform a linear search on an unsorted array of integers.</t>
+  </si>
+  <si>
+    <t>Solve the fibonacci sequence problem using dynamic programming (memorization).</t>
   </si>
 </sst>
 </file>
@@ -792,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1156,7 +1162,9 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -1164,7 +1172,9 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">

--- a/List of Programs.xlsx
+++ b/List of Programs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SanjanaKoirala\IdeaProjects\CULT\100-days-of-Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAF4296-0A99-4B56-8CAF-9613E1329B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAD2786-067A-4DEF-82F3-2D09B0970EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>Day</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Solve the fibonacci sequence problem using dynamic programming (memorization).</t>
+  </si>
+  <si>
+    <t>You are climbing a staircase. It takes n steps to reach the top. Each step you can either climb 1 or 2 steps. Write a function to find how many distinct ways you can climb to the top.</t>
   </si>
 </sst>
 </file>
@@ -798,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1182,7 +1185,9 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">

--- a/List of Programs.xlsx
+++ b/List of Programs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SanjanaKoirala\IdeaProjects\CULT\100-days-of-Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAD2786-067A-4DEF-82F3-2D09B0970EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC49D994-429E-4953-92A0-CD6E8A4431B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Java" sheetId="1" r:id="rId1"/>
+    <sheet name="Bonus Questions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>Day</t>
   </si>
@@ -193,6 +194,42 @@
   </si>
   <si>
     <t>You are climbing a staircase. It takes n steps to reach the top. Each step you can either climb 1 or 2 steps. Write a function to find how many distinct ways you can climb to the top.</t>
+  </si>
+  <si>
+    <t>Write a program using lamda expressions to sort a list of strings by length.</t>
+  </si>
+  <si>
+    <t>Write a program to implement the Factory design pattern for creating different types of animals (Dogs, Cats, etc.).</t>
+  </si>
+  <si>
+    <t>Write a program to copy the content of one file into another file.</t>
+  </si>
+  <si>
+    <t>Write a program to clone an object deeply in Java.</t>
+  </si>
+  <si>
+    <t>Find the longest substring without repeating characters in a given string.</t>
+  </si>
+  <si>
+    <t>S.N</t>
+  </si>
+  <si>
+    <t>Flour Pack problem:
+Write a method named canPack with three parameters of type int named bigCount, smallCount, and goal. 
+The parameter bigCount represents the count of big flour bags (5 kilos each).
+The parameter smallCount represents the count of small flour bags (1 kilo each).
+The parameter goal represents the goal amount of kilos of flour needed to assemble a package.
+Therefore, the sum of the kilos of bigCount and smallCount must be at least equal to the value of goal. The method should return true if it is possible to make a package with goal kilos of flour.
+If the sum is greater than goal, ensure that only full bags are used towards the goal amount. For example, if goal = 9, bigCount = 2, and smallCount = 0, the method should return false since each big bag is 5 kilos and cannot be divided. However, if goal = 9, bigCount = 1, and smallCount = 5, the method should return true because of 1 full bigCount bag and 4 full smallCount bags equal goal, and it's okay if there are additional bags left over.
+If any of the parameters are negative, return false.
+EXAMPLE INPUT/OUTPUT:
+canPack (1, 0, 4); should return false since bigCount is 1 (big bag of 5 kilos) and goal is 4 kilos.
+canPack (1, 0, 5); should return true since bigCount is 1 (big bag of 5 kilos) and goal is 5 kilos.
+canPack (0, 5, 4); should return true since smallCount is 5 (small bags of 1 kilo) and goal is 4 kilos, and we have 1 bag left which is ok as mentioned above.
+canPack (2, 2, 11); should return true since bigCount is 2 (big bags 5 kilos each) and smallCount is 2 (small bags of 1 kilo), makes in total 12 kilos and goal is 11 kilos. 
+canPack (-3, 2, 12); should return false since bigCount is negative.
+NOTE: The method canPack should be defined as public static like we have been doing so far in the course.
+NOTE: Do not add a main method to the solution code.</t>
   </si>
 </sst>
 </file>
@@ -342,7 +379,119 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -469,14 +618,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{74CEF025-F138-4CD9-8FB8-8326B9BA3EF4}" name="Table3" displayName="Table3" ref="A1:C101" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{74CEF025-F138-4CD9-8FB8-8326B9BA3EF4}" name="Table3" displayName="Table3" ref="A1:C101" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A1:C101" xr:uid="{74CEF025-F138-4CD9-8FB8-8326B9BA3EF4}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2996C586-2A01-4056-870E-C296A1B18C49}" name="Day" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{2996C586-2A01-4056-870E-C296A1B18C49}" name="Day" dataDxfId="9">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D64EC699-C0BE-4031-9925-E0DC342FE60B}" name="Program" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{FE4D3801-3EA2-4ED7-B3F1-2CD9008E484E}" name="Status" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{D64EC699-C0BE-4031-9925-E0DC342FE60B}" name="Program" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{FE4D3801-3EA2-4ED7-B3F1-2CD9008E484E}" name="Status" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{59739099-8F72-4958-906E-AC8D79755ACA}" name="Table33" displayName="Table33" ref="A1:C101" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C101" xr:uid="{59739099-8F72-4958-906E-AC8D79755ACA}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B8EF9F20-F3ED-407F-A070-690AF3EF4714}" name="S.N" dataDxfId="2">
+      <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{72111451-8C04-4CE1-B2C1-40CBD515FFD6}" name="Program" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{0F68A021-DF7E-4830-8F88-3EE1446F5BF0}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -801,14 +964,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="164.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="145.90625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1058,7 +1221,9 @@
       <c r="B21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
@@ -1068,7 +1233,9 @@
       <c r="B22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
@@ -1078,7 +1245,9 @@
       <c r="B23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
@@ -1195,7 +1364,9 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -1203,7 +1374,9 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -1211,7 +1384,9 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="6"/>
+      <c r="B37" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -1219,7 +1394,9 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="6"/>
+      <c r="B38" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -1227,7 +1404,9 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="6"/>
+      <c r="B39" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -1723,6 +1902,543 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010CB778-7122-4FE2-A71D-9B889BC30FAA}">
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="148.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="290" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <f>ROW(A1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="4"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="4"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="4"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="4"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="4"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="4"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="4"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="4"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="4"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="4"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="4"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="4"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="4"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="4"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="4"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="8"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="4"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="4"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="4"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="4"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="4"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="8"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="4"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="8"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="4"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="4"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="4"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="8"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="4"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="8"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="4"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="8"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="4"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="8"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="4"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="8"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="4"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="8"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="4"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="8"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="4"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="8"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="4"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="8"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="4"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="8"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="4"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="8"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="4"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="8"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="4"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="8"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="4"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="8"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="4"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="8"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="4"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="8"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="4"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="8"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="4"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="8"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="4"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="8"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="4"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="8"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="4"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="8"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="4"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="8"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="4"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="8"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="4"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="8"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="4"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="8"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="4"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="8"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="4"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="8"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="4"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="8"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="4"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="8"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="4"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="8"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="4"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="8"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="4"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="8"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="4"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="8"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="4"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="8"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="4"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="8"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="4"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="8"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="4"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="8"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="4"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="8"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="4"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="8"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="4"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="8"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="4"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="8"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="4"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="8"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="4"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="8"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="4"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="8"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="4"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="8"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="4"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="8"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="4"/>
       <c r="B101" s="6"/>
       <c r="C101" s="8"/>
     </row>
